--- a/files/COVID_article/Table2.xlsx
+++ b/files/COVID_article/Table2.xlsx
@@ -387,17 +387,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DiffSK</t>
+          <t>AgeComp</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>AgeCompSK</t>
+          <t>RateComp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>RateCompSK</t>
+          <t>Diff</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -456,13 +456,13 @@
         <v>0.02290248925501433</v>
       </c>
       <c r="E3">
+        <v>-0.001774697761608536</v>
+      </c>
+      <c r="F3">
+        <v>0.0009034585065942095</v>
+      </c>
+      <c r="G3">
         <v>-0.0008712392550143284</v>
-      </c>
-      <c r="F3">
-        <v>-0.001774697761608536</v>
-      </c>
-      <c r="G3">
-        <v>0.0009034585065942095</v>
       </c>
       <c r="H3">
         <v>0.662656538260741</v>
@@ -489,13 +489,13 @@
         <v>0.046583205517734</v>
       </c>
       <c r="E4">
+        <v>-0.01821682919477461</v>
+      </c>
+      <c r="F4">
+        <v>-0.006335126322959389</v>
+      </c>
+      <c r="G4">
         <v>-0.024551955517734</v>
-      </c>
-      <c r="F4">
-        <v>-0.01821682919477461</v>
-      </c>
-      <c r="G4">
-        <v>-0.006335126322959389</v>
       </c>
       <c r="H4">
         <v>0.7419706011448458</v>
@@ -522,13 +522,13 @@
         <v>0.04973334332730966</v>
       </c>
       <c r="E5">
+        <v>-0.01129663518176376</v>
+      </c>
+      <c r="F5">
+        <v>-0.01640545814554589</v>
+      </c>
+      <c r="G5">
         <v>-0.02770209332730966</v>
-      </c>
-      <c r="F5">
-        <v>-0.01129663518176376</v>
-      </c>
-      <c r="G5">
-        <v>-0.01640545814554589</v>
       </c>
       <c r="H5">
         <v>0.4077899474343031</v>
@@ -555,13 +555,13 @@
         <v>0.08719684220304529</v>
       </c>
       <c r="E6">
+        <v>-0.01526558684163744</v>
+      </c>
+      <c r="F6">
+        <v>-0.04990000536140785</v>
+      </c>
+      <c r="G6">
         <v>-0.06516559220304528</v>
-      </c>
-      <c r="F6">
-        <v>-0.01526558684163744</v>
-      </c>
-      <c r="G6">
-        <v>-0.04990000536140785</v>
       </c>
       <c r="H6">
         <v>0.2342583919758203</v>
@@ -588,13 +588,13 @@
         <v>0.121913536873179</v>
       </c>
       <c r="E7">
+        <v>-0.06997472192545481</v>
+      </c>
+      <c r="F7">
+        <v>-0.02990756494772415</v>
+      </c>
+      <c r="G7">
         <v>-0.09988228687317896</v>
-      </c>
-      <c r="F7">
-        <v>-0.06997472192545481</v>
-      </c>
-      <c r="G7">
-        <v>-0.02990756494772415</v>
       </c>
       <c r="H7">
         <v>0.7005718843252164</v>
@@ -621,13 +621,13 @@
         <v>0.1403006799609074</v>
       </c>
       <c r="E8">
+        <v>-0.07717615170773866</v>
+      </c>
+      <c r="F8">
+        <v>-0.04109327825316879</v>
+      </c>
+      <c r="G8">
         <v>-0.1182694299609074</v>
-      </c>
-      <c r="F8">
-        <v>-0.07717615170773866</v>
-      </c>
-      <c r="G8">
-        <v>-0.04109327825316879</v>
       </c>
       <c r="H8">
         <v>0.6525452243512826</v>
